--- a/Cohere eval/evaluation_eng_ben-cohere.xlsx
+++ b/Cohere eval/evaluation_eng_ben-cohere.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -946,7 +946,7 @@
     <t>এটা ছিল একটি বৃহৎ থামবার স্থান হেনরি লুইস গেটসের পিবিএস স্পেশাল অ্যাফ্রিকান ওয়ার্ল্ডে।</t>
   </si>
   <si>
-    <t>અર્જેન્ટાઇનાંને વિશ્વમાં શ્રેષ્ઠતન પોલો ટીમો અને ખેલાડીઓની હોવાથી જાણીતો છે.</t>
+    <t>আর্জেন্টিনা জানা মানে সে বেস্ট পোলো টিম এবং খেলোয়াড়দের থাকা, বিশ্বের সেরাদের মধ্যে একটি।</t>
   </si>
   <si>
     <t>সুয়া বাধা দেওয়া হলো যখন আপনি স্বাভাবিক সুয়া সময়ের মধ্যে জানি ভাবে জাগিয়ে উঠেন এবং কিছুক্ষণ পরে (১০-৬০ মিনিট) ফিরে ঘুম পেয়ে যান।</t>
@@ -958,7 +958,7 @@
     <t>মধ্যবিরামী নির্বাচনে এক সপ্তাহ ধরে পরাজয়ের পর, বুশ এক শ্রোতাদলকে এশিয়ায় ব্যাপার বিস্তারের কথা জানিয়েছেন।</t>
   </si>
   <si>
-    <t>હાલ્ડર્સવિક ગામ નજીકિયા દ્વીપ એસ્ટુરોયની દ્રષ્ટિઓ આપે છે અને એક અસામાન્ય આઠખણકિય ચર્ચ છે.</t>
+    <t>হালদারসভিক গ্রামে থেকে পাওয়া যায় পরিচিত দ্বীপ এস্টুরোয়ের দৃশ্য এবং এখানে রয়েছে একটি অসাধারণ আটপাশের চর্চ।</t>
   </si>
   <si>
     <t>তৃতীয় ভাগে ছবিকে উপরে নিচে ও দাঁড়িয়ে বহুল ব্যবহৃত বিষয়ের সর্বাধিক প্রভাবশালী স্থান হল রেখাগুলির দিকে বলে বলে দেয় (দেখুন উদাহরণ)।</t>
@@ -985,7 +985,7 @@
     <t>মাল পরিবহনের জন্য নৌকা ব্যবহার করা দূরত্যে সর্বাধিক কার্যকর উপায় হয় বহু মানুষ এবং মাল পার করার জন্য মহাসাগর পার করার জন্য।</t>
   </si>
   <si>
-    <t>हालांकि, XDR-TB वाले टीबी रोगियों की पूरी संख्या में प्रतिशत अभी भी कम लगता है; दक्षिण अफ्रीका में किसी भी विशेष समय पर संक्रमित कुल 330,000 लोगों में से 6,000.</t>
+    <t>সমগ্র তবেরকুলোজিস-আক্রান্ত ব্যক্তিদের মধ্যে XDR-টিবির অনুপাত কিন্তু কম মনে হচ্ছে; দক্ষিণ আফ্রিকায় কোন নির্দিষ্ট সময়ে সংক্রমিত মোট ৩,০,০০০ ব্যক্তির মধ্যে ৬,০০০ জন।</t>
   </si>
   <si>
     <t>বিল মাসুক ভিডিও গেমসকে ক্যালিফোর্নিয়াতে বিক্রি করার জন্য একটি স্টিকার লেবেল লাগাতে বাধ্য করে, যেখানে "১৮" লিখে থাকবে, এবং কোনও ব্যক্তিকে এটি বিক্রি করার জন্য প্রতি অভিযোগের জন্য ১০০০ ডলার জরিমানা নির্ধারণ করে।</t>
@@ -1012,7 +1012,7 @@
     <t>ডিন্ডি বিশ্ববিদ্যালয়ের প্রফেসর প্যামেলা ফার্গুসন উল্লেখ করেন, “যদি অভিযুক্তদের ছবি প্রকাশিত করা হয়, তাহলে সাংবাদিকরা অবশ্যই একটি বিপজ্জনক পথে চলছে।”</t>
   </si>
   <si>
-    <t>બકરીઓને પ્રારંભિક રીતે ઘરેલું કરવામાં આવ્યો છે કેટલીક ૧૦,૦૦૦ વર્ષથી જુઓંવા પહેલાં ઇરાનના ઝાગ્રોસ પર્વતમાળામાં.</t>
+    <t>আমেরিকার ইরানের জাগ্রোস পর্বতমালায় প্রায় ১০,০০০ বছর আগে বাঁশগাহরুর প্রথম পালন করা হয়েছিল, তা মনে হয়।</t>
   </si>
   <si>
     <t>উজ্জল জলের ভূমিকম্প কারণে ফিরে আসা প্রবাহ কয়েকটি গভীর অংশে কেন্দ্রিকৃত হয়, এবং সেখানে গভীর জলের দিকে তৎপরতার সঙ্গে ধারাবাহিক প্রবাহ গড়ে তুলতে পারে।</t>
@@ -1033,7 +1033,7 @@
     <t>হাই ট্রোপিকসে থাকার কারণে, যা হেমিস্ফের থেকে কেবল কয়েক ডিগ্রি উত্তরে অবস্থিত, আপনাকে গরমের সাথে সামনা সামনি হতে হবে (সবসময়) এবং মজবুত সূর্যের সাথে (যখন আকাশ স্পষ্ট থাকে, অল্প কিছু সময়).</t>
   </si>
   <si>
-    <t>टोंगा में कोई बड़ा नुकसान या चोट नहीं हुई है, लेकिन बिजली की आपूर्ति कुछ समय के लिए बाधित हो गई थी, जिससे सूचना मिलती है कि टोंगन प्राधिकरण को पीटीडब्ल्यूसी द्वारा जारी सुनामी चेतावनी प्राप्त करने से रोक दिया गया था।</t>
+    <t>টঙ্গায় কোনও বিপজ্জনক ক্ষতি বা আঘাতের কোনও খবর পর্যন্ত এখনও জানানো হয়নি, কিন্তু বিদ্যুৎ সম্পর্ক আস্তগামী ভাবে বিচ্ছিন্ন হয়ে গিয়েছিল, যার ফলে টঙ্গার কর্তৃপক্ষগুলিকে পিটিডব্লিউসি-এর প্রদত্ত সুনামী বিজ্ঞপ্তি পেতে বাধা দেওয়া হয়েছিল বলে অনুমান করা হচ্ছে।</t>
   </si>
   <si>
     <t>এটি মার্টেলির চতুর্থ বৎসরে পাঁচম সেপি।</t>
@@ -1042,7 +1042,7 @@
     <t>হ্যামিল্টন নিশ্চিত করেছে যে, হাওয়ার্ড বিশ্ববিদ্যালয় হাসপাতালে রোগীটিকে স্থিতিশীল অবস্থায় ভর্তি করা হয়েছে।</t>
   </si>
   <si>
-    <t>বেঙ্গালী: বাইরে থেকে আসা নারীদের বা মেয়েদেরকে নির্দেশিকাবিধে হিসাবে তাঁরা বিবাহিত বলে দিতে হবে, যদিও তাঁরা বিবাহিত না হোন।</t>
+    <t>নারীরা: বিবাহিত না হলেও যে কোনো মহিলা ভ্রমণকারীকে বিবাহিত বলতে বলা হয়।</t>
   </si>
   <si>
     <t>সেগুলোর প্রবেশদ্বারগুলো, যার নাম ছিল "সেভেন সিস্টার্স", দ্যামিনার ১০০ থেকে ২৫০ মিটার (৩২৮ থেকে ৮২০ ফুট) ব্যাস।</t>
@@ -1081,7 +1081,7 @@
     <t>এই ট্যাক্টিকের দিকে সিমিত প্রতিক্রিয়া থাকায়, জার্মানি আশা করছিল যে তারা বেপরোয়াহ উভয়খণ্ড নৌযুদ্ধের দিকে একইরকম প্রতিক্রিয়া পাবে।</t>
   </si>
   <si>
-    <t>ડસ્ટિન "ગોલ્ડડસ્ટ" રનન્સેએ કહ્યું કે “લૂના જેટલી ફ્રીકી હતી કેવી કે હું... શાયદ તો તેણીની કિંમત વધી ફ્રીકી હતી... તેણીને પ્રેમ કરું અને તેણીની યાદ સંત કરીશ... તેણી વધુ ઉત્તમ સ્થળમાં હોય તેવી આશા.”</t>
+    <t>ডাস্টিন "গোল্ডাস্ট" রানেল্স মন্তব্য করেছেন, "লুনা যতটা অস্বাভাবিক ছিল আমার, সম্ভবত তার চেয়েও বেশি.</t>
   </si>
   <si>
     <t>বেশি বলে চার মিলিয়ন লোক রোমে শব্দির অনুষ্ঠানে অংশ নেওয়ার জন্য গিযেছিল।</t>
@@ -1159,7 +1159,7 @@
     <t>সহায়ক কীটনাশক পরীক্ষায় সরঞ্জামদের কার্যকলাপগুলি রেঞ্জারদের দ্বারা নিকটবর্তী অবস্থায় নিরীক্ষণ করা হয়েছিল, কারণ পরীক্ষাটি নিরীক্ষিত হচ্ছিল এবং তার প্রভাবীতা মূল্যায়ন করা হচ্ছিল।</t>
   </si>
   <si>
-    <t>इज़मिर तुर्की की तीसरी सबसे बड़ी शहर है, जिसकी आबादी लगभग 37 लाख है, यह इस्तांबुल के बाद दूसरा सबसे बड़ा बंदरगाह है, और यह एक बहुत अच्छा परिवहन केंद्र भी है।</t>
+    <t>ইজমির হ'ল তুর্কিতে তৃতীয় বৃহত্তম শহর, যেখানে বসবাসিত হ'ল প্রায় ৩৭ লাখ জন, ইস্তানবুলের পরে দ্বিতীয় বৃহত্তম বন্দর, এবং একটি খুবই উত্তম যানবাহন কেন্দ্র।</t>
   </si>
   <si>
     <t>ইওয়াসাকির ভ্রমণের সময়, তিনি অনেক সময় বিপদে পড়েছিলেন।</t>
@@ -1201,7 +1201,7 @@
     <t>কুয়োমো, ৫৩, এই বছরের আগে স্বীকৃতি লাভ করেছেন এবং গতমাসে একটি বিল স্বাক্ষর করেছেন যা সমান লিঙ্গীয় বিবাহকে বৈধ করে।</t>
   </si>
   <si>
-    <t>ફિનલેન્ડમાં, બોટિંગ એક રાષ્ટ્રીય પસંતીપ્રિય કાર્ય છે, અને તોડાના સાત અથવા આઠ વ્યક્તિઓ પર એક બોટ છે.</t>
+    <t>বাংলা অনুবাদ: ফিনল্যান্ডে জলযান চলাচল একটি জাতীয় পছন্দ, যেখানে সাত অথবা আট জনের জন্য একটি জলযান রয়েছে।</t>
   </si>
   <si>
     <t>এটা কিছু ক্রিয়া ও বস্তুকে পার্থক্য করার গুরুত্বপূর্ণ উপায়।</t>
@@ -1252,13 +1252,13 @@
     <t>রি-এন্ট্রি শক কালচার শকের তুলনায় বেশি তীব্র এবং বেশি সময় ধরে থাকে। (এর একটি চাহিদা মুহূর্ত অস্তিত্ব নেই)</t>
   </si>
   <si>
-    <t>ગ્રીષ્મકાળના દિવસોમાં વિશેષતયારે લોકોની પસંદગીનો ભોજન છે પા અંબ્હોલી: બ્રેડ, જીતોનો તેલ, ટમેટો અને ઉપલબ્ધ કડીજીઓ જેમ કે ચીઝ, ટૂનાફિશ આદિ.</t>
+    <t>গ্রীষ্মকালে, খাসজীর জনপ্রিয় খাবার হচ্ছে পা অ্যাম্ব অলি: রুটি, যার সাথে দিয়ে খাওয়া হয় জলক তেল, টমেটো, এবং যে কোনও উপলব্ধ অস্ত্র যেমন চিজ, টুনাফিশ, ইত্যাদি।</t>
   </si>
   <si>
     <t>বাহিরে স্পষ্ট ও সুন্দর আকাশ এবং পর্বতমালা ছাড়া আর কিছু দেখা যায় না। গুহার ভিতর থেকে এ পৃথিবীর কিছুই দেখা ও শুনা যায় না।</t>
   </si>
   <si>
-    <t>ચાકો અને તેના આવરણવાળા ભૂભાગોમાં વિવિધ આદિવાસી જાતિઓની જાતિઓ રહેતી હતી, જેમાં ગ્વાયકુરુ અને પાયાગુઆની જાતિઓ સમર્પિત હતી, જેઓ શિકાર, સંગ્રહ અને માછલીમાં રહેતી હતી.</t>
+    <t>চাকো অঞ্চলটি গুয়াইকুরু এবং পায়াগুয়ারু নামক কিছু আদিবাসী জাতিগুলির বাসস্থান ছিল, যারা শিকার করে, ফল-ফুল সংগ্রহ করে এবং মাছ পাকড়াও করে বেঁচে থাকত।</t>
   </si>
   <si>
     <t>এআই গবেষণা মেশিনকে তৈরি করতে সংক্রান্ত, যাতে বুদ্ধিমত্তার অভিলাষ থাকে তা স্বয়ংক্রিয় করার কথা।</t>
@@ -1276,7 +1276,7 @@
     <t>প্রায় শুরু থেকেই ও [ওয়েলস] আমাদের সাথে মিথ্যে কথা বলেছে। প্রথমত, যেমন এটি আইনি কারণে ছিল। দ্বিতীয়ত, যেমন সে আমাদের কথা শুনছে, যেমন তার শিল্প মিছন পর্যন্ত।</t>
   </si>
   <si>
-    <t>मिक ओ'फ्लिन, एनपीडब्लयूएस के एक्टिंग डायरेक्टर पार्क कंज़र्वेशन एंड हेरिटेज के अनुसार, पहली शूटिंग ऑपरेशन के लिए चुने गए चार शूटर्स को व्यापक सुरक्षा और प्रशिक्षण निर्देश दिया गया था।</t>
+    <t>মাইক ও'ফ্লিন, এক্টিং ডাইরেক্টর পার্ক কনসার্ভেশন অ্যান্ড হেরিটেজের মতে, প্রথম শুটিং অপারেশনের জন্য নির্বাচিত চারজন শুটারকে সংক্ষিপ্ত সুরক্ষা ও প্রশিক্ষণ নির্দেশ দেওয়া হয়েছিল।</t>
   </si>
   <si>
     <t>অনেক ধর্মীয় দেশের অধর্মী এবং বিশ্বের অন্যান্য অধর্মী লোকও এই ছুটির আচরণগুলির অনেকগুলি আদর্শ করেছে।</t>
@@ -1321,7 +1321,7 @@
     <t>ব্লগগুলি ছাত্রদের লেখা শৈলী উন্নত করতেও সাহায্য করতে পারে। যদিও শুরুতে ছাত্ররা ব্লগে অসুসজ্জিত ব্যাকরণ ও লিপিবিচ্ছেদ ব্যবহার করে, কিন্তু পাঠক সম্প্রদায়ের উপস্থিতি সাধারণত এই অবস্থা পরিবর্তন করে দেয়।</t>
   </si>
   <si>
-    <t>એક સંસ્થા કારણ કારણ સમય લેતાના પ્રક્રિયાને સ્વીકારવાનું જરૂરી કારણ શિક્ષણ સંસ્થાનું બનાવવાનું જરૂરી કારણ શિક્ષણ સંસ્થાના વિચારોની પ્રાગેલિક કરવાનું એક લક્ષ્ય નવાચાર છે.</t>
+    <t>একটি সংস্থা কারণে কারণে সময় সম্পদ ব্যয়কর প্রক্রিয়া ব্যবস্থাপনার জন্য অনুসরণ করতে চাইবে? সংস্থাগত শিক্ষার ধারণা ব্যাপারে অনুশীলনের একটি লক্ষ্য নবান্বেষণ।</t>
   </si>
   <si>
     <t>তুমি যতক্ষণ এই এলাকায় থাক, ততক্ষণ পাসপোর্ট নিয়ন্ত্রণ কেন্দ্রগুলিতে ফিরে যাওয়া ছাড়াই সাধারণত সীমানা অতিক্রমণ করতে পার।</t>
@@ -1336,16 +1336,16 @@
     <t>তুমি যদি দেখ কি তুমি নিদ্রায় ঘড়ি রিসেট করছ, তাহলে ঘড়িটা ঘরের অপর পার্শ্বে রাখা যায়, যাতে তুমি শুয়ে থেকে উঠে ঘড়ি বন্ধ করতে বাধ্য হও।</t>
   </si>
   <si>
-    <t>બર્તવ્ય સનેટર અને અર્જન્ટાઇન ફર્સ્ટ લેડી ક્રિસ્ટિના ફર્નાંડેઝ ડી કિર્ચનરે ગાલમાં રાત્રે લા પ્લાટામાં અર્જન્ટાઇનના બુઈનસ એઇર્સથી ૫૦ કિલોમીટર (૩૧ માઈલ) દૂરના શહેરમાં તેમણીના રાષ્ટ્રપતિ માટેના અભ્યર્થનની ઘોષના કરી.</t>
-  </si>
-  <si>
-    <t>તેનો 1000વીંનો ડાકનો સ્ટેમ્પ વર્ષ ૨૦૦૦માં ડેવિડ ક્લોકર એહ્રેનસ્ટ્રેહલ દ્વારા નિર્મિત “ગ્રેટ ડીડ્સ બાઇ સ્વીડિશ કિંગ્સ” હતો, જે ગિનીસ બુક અફ વર્લ્ડ રેકોર્ડ્સમાં લસ્તવાર છે.</t>
+    <t>বর্তমান সিনেটর এবং অর্জেন্টিনার প্রথম দাম্পত্যজীবী ক্রিস্টিনা ফার্নান্দেজ ডে কির্চনার গতকাল রাতে লা প্লাটায় তাঁর রাষ্ট্রপতি প্রার্থীত্ব ঘোষণা করেছেন, যা বুয়েনোস এয়ারেস থেকে ৫০ কিলোমিটার (৩১ মাইল) দূরে অবস্থিত।</t>
+  </si>
+  <si>
+    <t>তার ১,০০০তম স্টাম্প ছিল ২০০০ সালে ডেভিড ক্লফ়ার এহরেনস্ট্রাহলের মহান “গ্রেট ডিডস বাই সুইডিশ কিংস” যা গিনিস বুক অব ওয়ার্ল্ড রেকর্ডসে লিস্টেড আছে।</t>
   </si>
   <si>
     <t>বিবেচনা করা উচিত, আমাদের নিজেদের পূর্বপুরুষদের মধ্যে অনেকে সম্ভবত তাদের "প্রোটিন সমস্যা" সমাধান করেছিলেন আজকের সাবানার চিম্পাঁজির মতোই।</t>
   </si>
   <si>
-    <t>ટ્રમ્પ અને તુર્કી અધ્યક્ષ રેસેપ તાયીપ એર્દોગન વચ્ચન ફોન વાતચીત પછી આ ઘોષણા કરવામાં આવી.</t>
+    <t>ট্রাম্প ও তুর্কি রাষ্ট্রপতি রেজেপ তাইয়িপ এর্দোগানের মধ্যে টেলিফোনে কথাবার্তার পর এ ঘোষণা করা হয়েছে।</t>
   </si>
   <si>
     <t>লেটন পিএম-এর সাথে বৈঠকে কনসার্ভেটিভদের পরিবেশসম্পর্কীয় বিধেয়কে পরিবর্তন চাওয়া করেছিলেন, এবং কনসার্ভেটিভ পার্টির পরিবেশসম্পর্কীয় বিধেয়কে পুনরায় লিখার জন্য অনুরোধ করেছিলেন।</t>
@@ -1363,10 +1363,10 @@
     <t>এডেকোয়া তখন থেকে এডিনবরা শেরিফ কোর্টে তার ছেলেকে খুন করার অভিযুক্ত হিসাবে আছে।</t>
   </si>
   <si>
-    <t>সেক্রেট অফ থেয়ার সাক্সেস ইজ দি কনসেপ্ট অফ দি নিচ, এ স্পেশাল জব ইচ হল্ডস দ্যাট কীপস ইট ফ্রম কম্পিটিং ঵িথ অথারস।</t>
-  </si>
-  <si>
-    <t>সঙ্গী রেস্লারদের লুনার শ্রদ্ধাজনক করেছে।</t>
+    <t>তাদের সফলতার রহস্য নিহিত একটি ধারণা, যা প্রতিটি বিশেষ কাজ রাখে যা অন্য বিলাসীদের সাথে প্রতিযোগিতা থেকে বিরত থাকে।</t>
+  </si>
+  <si>
+    <t>সঙ্গী উস্ত্রীও লুনার প্রতি শ্রদ্ধা জ্ঞাপন করেছেন।</t>
   </si>
   <si>
     <t>পুলিশ বলছে যে সংশায় গাড়িটির চালককে অপরাধিক অভিযোগ দায়ের সম্মুখীন হওয়ার সম্ভাবনা কম।</t>
@@ -1848,7 +1848,7 @@
         <v>310</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.02486954214312595</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1904,7 +1904,7 @@
         <v>314</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.01755638228482643</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2030,7 +2030,7 @@
         <v>323</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.03235827053239344</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2156,7 +2156,7 @@
         <v>332</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.2014941615706458</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2254,7 +2254,7 @@
         <v>339</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.02182976214283967</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2296,7 +2296,7 @@
         <v>342</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.02233077788489958</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2478,7 +2478,7 @@
         <v>355</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.006209443871385971</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2842,7 +2842,7 @@
         <v>381</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.1082039762100426</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3038,7 +3038,7 @@
         <v>395</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.04531300909655814</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3276,7 +3276,7 @@
         <v>412</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>0.03189964696245855</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3304,7 +3304,7 @@
         <v>414</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>0.11856660123276</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3388,7 +3388,7 @@
         <v>420</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>0.06741531344568415</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3598,7 +3598,7 @@
         <v>435</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>0.02803089189112111</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3668,7 +3668,7 @@
         <v>440</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>0.06466389207746075</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3682,7 +3682,7 @@
         <v>441</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>0.08391878323066816</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3710,7 +3710,7 @@
         <v>443</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>0.01973065769362093</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3794,7 +3794,7 @@
         <v>449</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>0.09777995826836774</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3808,7 +3808,7 @@
         <v>450</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>0.03235934848975789</v>
       </c>
     </row>
     <row r="149" spans="1:4">
